--- a/results/TS_1/answers_part1.xlsx
+++ b/results/TS_1/answers_part1.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C2" t="n">
-        <v>3136</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C3" t="n">
-        <v>2086</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C4" t="n">
-        <v>2277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C5" t="n">
-        <v>2498</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C6" t="n">
-        <v>2190</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C7" t="n">
-        <v>2475</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C8" t="n">
-        <v>4182</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C9" t="n">
-        <v>2439</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C10" t="n">
-        <v>3167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C11" t="n">
-        <v>1634</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C12" t="n">
-        <v>1036</v>
+        <v>7181</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C13" t="n">
-        <v>1761</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C14" t="n">
-        <v>1634</v>
+        <v>577</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C15" t="n">
-        <v>1559</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C16" t="n">
-        <v>1523</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C17" t="n">
-        <v>4773</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C18" t="n">
-        <v>2638</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C19" t="n">
-        <v>1928</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C20" t="n">
-        <v>5925</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C21" t="n">
-        <v>1298</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C22" t="n">
-        <v>3715</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C23" t="n">
-        <v>2157</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C24" t="n">
-        <v>1511</v>
+        <v>712</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C25" t="n">
-        <v>1138</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C26" t="n">
-        <v>3573</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C27" t="n">
-        <v>2875</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C28" t="n">
-        <v>4314</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C29" t="n">
-        <v>3972</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C30" t="n">
-        <v>1448</v>
+        <v>809</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C31" t="n">
-        <v>1852</v>
+        <v>432</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C32" t="n">
-        <v>1949</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C33" t="n">
-        <v>1987</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C34" t="n">
-        <v>6468</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C35" t="n">
-        <v>1218</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C36" t="n">
-        <v>1902</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C37" t="n">
-        <v>2123</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C38" t="n">
-        <v>1667</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C39" t="n">
-        <v>1997</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C40" t="n">
-        <v>2549</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1</v>
+        <v>10001</v>
       </c>
       <c r="C41" t="n">
-        <v>1403</v>
+        <v>897</v>
       </c>
     </row>
   </sheetData>
